--- a/glider generator.xlsx
+++ b/glider generator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57e77ed72254c448/Documents/GitHub/nsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{C1726F3F-41FD-4700-BD64-A36040DE111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF628CC9-0FDC-4BB4-87E2-D936797CFB99}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{C1726F3F-41FD-4700-BD64-A36040DE111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{351E8401-AD3D-427A-A3B6-C1C098A24D91}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="670" windowWidth="13090" windowHeight="9835" xr2:uid="{D7DADEC7-D0EF-4226-8BBE-9E99F4C78B76}"/>
+    <workbookView xWindow="3405" yWindow="655" windowWidth="13090" windowHeight="9835" xr2:uid="{D7DADEC7-D0EF-4226-8BBE-9E99F4C78B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>ref_class</t>
   </si>
@@ -219,9 +219,6 @@
     <t>7C2179</t>
   </si>
   <si>
-    <t>FD0C97</t>
-  </si>
-  <si>
     <t>D008A7</t>
   </si>
   <si>
@@ -252,13 +249,28 @@
     <t>D00952</t>
   </si>
   <si>
-    <t>DDC0BA</t>
-  </si>
-  <si>
     <t>D00D46</t>
   </si>
   <si>
     <t>DDE68D</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>VH</t>
+  </si>
+  <si>
+    <t>FY</t>
   </si>
 </sst>
 </file>
@@ -311,6 +323,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D63A99-35FA-4916-AEE8-0B88647505A1}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -670,7 +686,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -680,7 +696,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
-        <v>{ "name": "Miles Gore-Brown","comp": "Sports","cn": "GWB", "glider":"LS8", "flarm": ["7C2179"]},</v>
+        <v>{ "name": "Miles Gore-Brown","comp": "Sports","cn": "WB", "glider":"LS8", "flarm": ["7C2179"]},</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -694,7 +710,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -702,12 +718,9 @@
       <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" t="str">
-        <f>"{ ""name"": """&amp;B4&amp;""",""comp"": """&amp;A4&amp;""",""cn"": """&amp;D4&amp;""", ""glider"":"""&amp;C4&amp;""", ""flarm"": ["""&amp;F4&amp;""","""&amp;G4&amp;"""]},"</f>
-        <v>{ "name": "Ranjit Phelan","comp": "Sports","cn": "GEP", "glider":"Diana2", "flarm": ["FD0C97","D008A7"]},</v>
+        <f t="shared" si="0"/>
+        <v>{ "name": "Ranjit Phelan","comp": "Sports","cn": "RP", "glider":"Diana2", "flarm": ["D008A7"]},</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
@@ -721,17 +734,17 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>{ "name": "Jacob Bloom","comp": "Sports","cn": "JKB", "glider":"JS3-15M", "flarm": ["7C2EF9"]},</v>
+        <v>{ "name": "Jacob Bloom","comp": "Sports","cn": "JB", "glider":"JS3-15M", "flarm": ["7C2EF9"]},</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
@@ -745,17 +758,17 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>{ "name": "Kerrie Claffey","comp": "Sports","cn": "XTK", "glider":"ASG29-18M", "flarm": ["7C7726"]},</v>
+        <v>{ "name": "Kerrie Claffey","comp": "Sports","cn": "T1", "glider":"ASG29-18M", "flarm": ["7C7726"]},</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
@@ -768,18 +781,18 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
-        <v>48</v>
+      <c r="D7">
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>{ "name": "Ed Marel","comp": "Sports","cn": "DOH", "glider":"ASH31Mi-18M", "flarm": ["DDE9E9"]},</v>
+        <v>{ "name": "Ed Marel","comp": "Sports","cn": "31", "glider":"ASH31Mi-18M", "flarm": ["DDE9E9"]},</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
@@ -799,7 +812,7 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -817,17 +830,17 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>{ "name": "Bernie Sizer","comp": "Club","cn": "GVH", "glider":"PIK20B-W", "flarm": ["DD506D"]},</v>
+        <v>{ "name": "Bernie Sizer","comp": "Club","cn": "VH", "glider":"PIK20B-W", "flarm": ["DD506D"]},</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
@@ -847,7 +860,7 @@
         <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -871,7 +884,7 @@
         <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -895,7 +908,7 @@
         <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -919,14 +932,11 @@
         <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H13" t="str">
-        <f>"{ ""name"": """&amp;B13&amp;""",""comp"": """&amp;A13&amp;""",""cn"": """&amp;D13&amp;""", ""glider"":"""&amp;C13&amp;""", ""flarm"": ["""&amp;F13&amp;""","""&amp;G13&amp;"""]},"</f>
-        <v>{ "name": "Richard Frawley","comp": "Club","cn": "CQO", "glider":"LS4A", "flarm": ["D00952","DDC0BA"]},</v>
+        <f t="shared" si="0"/>
+        <v>{ "name": "Richard Frawley","comp": "Club","cn": "CQO", "glider":"LS4A", "flarm": ["D00952"]},</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
@@ -940,17 +950,17 @@
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
         <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>{ "name": "Ross Whittle","comp": "Club","cn": "GFY", "glider":"DISCUSB-W", "flarm": ["D00D46"]},</v>
+        <v>{ "name": "Ross Whittle","comp": "Club","cn": "FY", "glider":"DISCUSB-W", "flarm": ["D00D46"]},</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
@@ -970,7 +980,7 @@
         <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
